--- a/1.9.4-479/benchmarks.xlsx
+++ b/1.9.4-479/benchmarks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="370" windowWidth="22605" windowHeight="11881" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="330" yWindow="355" windowWidth="22590" windowHeight="11865" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
   <si>
     <t>MCU</t>
   </si>
@@ -472,6 +472,42 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Nucleo_L432KC</t>
+  </si>
+  <si>
+    <t>STM32LM32</t>
+  </si>
+  <si>
+    <t>32M</t>
+  </si>
+  <si>
+    <t>20.86</t>
+  </si>
+  <si>
+    <t>46.35</t>
+  </si>
+  <si>
+    <t>21.49</t>
+  </si>
+  <si>
+    <t>46.55</t>
+  </si>
+  <si>
+    <t>21.95</t>
+  </si>
+  <si>
+    <t>46.71</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>49.44</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>STM32L476DISC</t>
   </si>
   <si>
@@ -767,9 +803,6 @@
   </si>
   <si>
     <t>40.22</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>ESP32</t>
@@ -1186,7 +1219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="21">
+  <fonts count="17" x14ac:knownFonts="17">
     <font>
       <sz val="12.0"/>
       <name val="宋体"/>
@@ -1204,12 +1237,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -1224,17 +1251,6 @@
       <name val="Courier New"/>
       <family val="3"/>
       <b/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -1285,21 +1301,15 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <b/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -1369,7 +1379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2277,133 +2287,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2428,265 +2318,232 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="9" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="8" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="7" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="9" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="8" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="7" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="9" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="8" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="7" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="9" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="8" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="6" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="13" applyFont="1" fillId="9" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="13" applyFont="1" fillId="8" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="55" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="13" applyFont="1" fillId="6" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" borderId="57" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="7" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="10" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="9" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="7" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="6" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="9" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="8" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="7" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="6" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="9" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="8" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="7" applyFill="1" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="9" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="8" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="6" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="7" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" borderId="55" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="16" applyFont="1" fillId="9" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="16" applyFont="1" fillId="8" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="16" applyFont="1" fillId="6" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="8" applyFont="1" fillId="10" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="8" applyFont="1" fillId="6" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="8" applyFont="1" fillId="9" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="17" applyFont="1" fillId="7" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="8" applyFont="1" fillId="7" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="8" applyFont="1" fillId="8" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="15" applyFont="1" fillId="10" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2703,10 +2560,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="N25" activeCellId="0" sqref="N25"/>
+      <selection activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2726,347 +2583,347 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="59" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="64">
         <v>3.44</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="60">
         <v>7.93</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="63">
         <v>3.56</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="60">
         <v>7.97</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="62">
         <v>3.56</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="60">
         <v>8.13</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="61">
         <v>0.67</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="59" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="82" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="59" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="59" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="71" t="s">
@@ -3079,313 +2936,351 @@
         <v>102</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="65" t="s">
         <v>109</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="C11" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="E11" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="68" t="s">
+      <c r="G11" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="67" t="s">
+      <c r="H11" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="I11" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="65" t="s">
-        <v>109</v>
+      <c r="J11" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="66" t="s">
+      <c r="A12" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="B12" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="D12" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="E12" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="F12" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="G12" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="I12" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="L12" s="65" t="s">
-        <v>130</v>
+      <c r="L12" s="59" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="C13" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="E13" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="F13" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="G13" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="H13" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="I13" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="J13" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="K13" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="66" t="s">
+      <c r="L13" s="59" t="s">
         <v>141</v>
-      </c>
-      <c r="L13" s="65" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="63">
         <v>4.15</v>
       </c>
-      <c r="G14" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
+      <c r="G15" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
+      <c r="A19" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:L26"/>
+    <mergeCell ref="A19:L27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>

--- a/1.9.4-479/benchmarks.xlsx
+++ b/1.9.4-479/benchmarks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="355" windowWidth="22590" windowHeight="11865" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="315" yWindow="339" windowWidth="22575" windowHeight="11850" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId2"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
   <si>
     <t>MCU</t>
   </si>
@@ -1108,6 +1108,36 @@
   </si>
   <si>
     <t>14141.25</t>
+  </si>
+  <si>
+    <t>K210_LoBo</t>
+  </si>
+  <si>
+    <t>K210C</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>8.76</t>
+  </si>
+  <si>
+    <t>8.23</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>1480.96</t>
   </si>
   <si>
     <r>
@@ -1219,7 +1249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="17">
+  <fonts count="19" x14ac:knownFonts="19">
     <font>
       <sz val="12.0"/>
       <name val="宋体"/>
@@ -1308,6 +1338,12 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -1315,9 +1351,15 @@
       <sz val="12.0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,8 +1420,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -2287,13 +2341,288 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE3EDF5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE3EDF5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE3EDF5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE3EDF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE3EDF5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE3EDF5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE3EDF5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE3EDF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE3EDF5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE3EDF5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE3EDF5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE3EDF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE3EDF5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE3EDF5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE3EDF5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE3EDF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE3EDF5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE3EDF5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE3EDF5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE3EDF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2534,16 +2863,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="15" applyFont="1" fillId="10" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="7" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="72" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="13" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="13" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2560,10 +3015,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection activeCell="A20" activeCellId="0" sqref="A20:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2821,7 +3276,7 @@
       <c r="D7" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="60" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="63" t="s">
@@ -2836,13 +3291,13 @@
       <c r="I7" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="61" t="s">
         <v>72</v>
       </c>
       <c r="K7" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="82" t="s">
+      <c r="L7" s="59" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3075,99 +3530,121 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="97" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="101">
         <v>4.15</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="60" t="s">
+      <c r="K15" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="97" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="78" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="B16" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="97" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
+      <c r="A20" s="124" t="s">
+        <v>174</v>
+      </c>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
       <c r="D20" s="77"/>
@@ -3278,9 +3755,23 @@
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:L27"/>
+    <mergeCell ref="A20:L28"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.247760630029393" right="1.247760630029393" top="0.9998749560258521" bottom="0.9998749560258521" header="0.49993747801292604" footer="0.49993747801292604"/>
